--- a/biology/Médecine/Alfred_Vincent/Alfred_Vincent.xlsx
+++ b/biology/Médecine/Alfred_Vincent/Alfred_Vincent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred-Louis Vincent, né le 4 juin 1850 à Saint-Pétersbourg et mort à Genève le 5 juillet 1906, est un médecin et une personnalité politique suisse, membre du parti radical-libéral.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean-Louis Vincent et d'Augustine Amélie Caroline née  Schmidt, il fait des études de sciences et lettres à l’académie de Genève (1868-1870), puis de médecine à Strasbourg, à Berne (1872-1876), et à Genève (1876, doctorat à Genève en 1878). 
 Établi comme médecin à Genève, il fut directeur du Bureau de salubrité (1884-1897), maître d'hygiène à l'école supérieure de jeunes filles et au collège (1883), ainsi que professeur d'hygiène à l'université (1889-1900).
 En 1886, il a été élu député radical-libéral au Grand Conseil genevois où il a servi jusqu'à sa mort. Il fut président du conseil en 1884, 1889 et 1893. De 1896 à 1906, il est élu au Conseil national et au Conseil d'État (Intérieur de 1898 à 1902, Instruction publique de 1903 à 1906). Entre 1902 et 1906, il fut le premier administrateur des Chemins de fer fédéraux suisses nouvellement nationalisée.
-Franc-maçon, il a été membre de la Grande Loge suisse Alpina[1].
+Franc-maçon, il a été membre de la Grande Loge suisse Alpina.
 Il est inhumé au Cimetière des Rois, à Genève.
 </t>
         </is>
